--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>TEBLİĞ MAZBATASI</t>
   </si>
@@ -147,6 +142,54 @@
   </si>
   <si>
     <t>Soruşturma</t>
+  </si>
+  <si>
+    <t>soruşturma No</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>baba adı</t>
+  </si>
+  <si>
+    <t>anne adı</t>
+  </si>
+  <si>
+    <t>cinsiyet</t>
+  </si>
+  <si>
+    <t>d.tarihi</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>adres</t>
+  </si>
+  <si>
+    <t>teklif tarihi</t>
+  </si>
+  <si>
+    <t>dosya türü</t>
+  </si>
+  <si>
+    <t>mahkeme veya savcılık</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>mehmet eroğlu</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>havva</t>
+  </si>
+  <si>
+    <t>ambarlı mah etinabk tesisler yolu cad. batman apt. No:18 daire 12 Avcılar istanbul</t>
   </si>
 </sst>
 </file>
@@ -358,30 +401,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -394,15 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -416,12 +435,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -430,12 +443,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -450,18 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -490,14 +485,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -505,9 +494,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,9 +508,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,71 +709,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="veri"/>
-      <sheetName val="Teklif Formu"/>
-      <sheetName val="Davet Mektubu"/>
-      <sheetName val="Tebligat"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>1980/1111</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>43203</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>kızı</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>4953581905</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>İsmet YILMAZ</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>ramazan</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>yasemin</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>29321</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Ambarlı Mah Etibanktesisler yolu cad. No:1/7 34315 Avcılar/İSTANBUL</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,861 +998,927 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="9.140625" style="50"/>
+    <col min="16" max="16" width="13.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="K1" s="3"/>
+      <c r="P1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="73">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="str">
-        <f>[1]veri!C2</f>
-        <v>1980/1111</v>
-      </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="J2" s="57">
+        <f>Q1</f>
+        <v>43435</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="P2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="P3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="P4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="P5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f>IF(Q5 = "Kadın","kızı",IF(Q5 = "Erkek","oğlu",))</f>
+        <v>oğlu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="P6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>31669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="P7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>14579213518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="20"/>
+      <c r="P8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="20"/>
+      <c r="P9" s="51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="34" t="str">
-        <f>UPPER([1]veri!C14)</f>
-        <v>İSMET YILMAZ</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="H10" s="65" t="str">
+        <f>UPPER(Q2)</f>
+        <v>MEHMET EROĞLU</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="P10" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="35" t="str">
-        <f>UPPER([1]veri!C15)&amp;", "&amp;UPPER([1]veri!C16)&amp;" "&amp;[1]veri!C8&amp;" D.Tarihi: "&amp; TEXT([1]veri!C18,"gg.aa.yyyy")</f>
-        <v>RAMAZAN, YASEMİN kızı D.Tarihi: 10.04.1980</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="str">
+        <f>UPPER(Q3)&amp;", "&amp;UPPER(Q4)&amp;" "&amp; R5 &amp;" D.Tarihi: "&amp; TEXT(Q6,"gg.aa.yyyy")</f>
+        <v>ALİ, HAVVA oğlu D.Tarihi: 14.09.1986</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="35" t="str">
-        <f>"T.C No: "&amp;LEFT([1]veri!C13,2)&amp;"******"&amp;RIGHT([1]veri!C13,3)</f>
-        <v>T.C No: 49******905</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="23" t="str">
+        <f>"T.C No: "&amp;LEFT(Q7,2)&amp;"******"&amp;RIGHT(Q7,3)</f>
+        <v>T.C No: 14******518</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="14" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="40" t="str">
-        <f>PROPER([1]veri!C19)</f>
-        <v>Ambarlı Mah Etibanktesisler Yolu Cad. No:1/7 34315 Avcılar/İstanbul</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="H15" s="66" t="str">
+        <f>PROPER(Q8)</f>
+        <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
+      </c>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+    </row>
+    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="42" t="str">
-        <f>"BU ZARFTA "&amp;TEXT([1]veri!C7,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
-        <v>BU ZARFTA 13.04.2018 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="68" t="str">
+        <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
+        <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="46" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="47" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="48" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="K24" s="18"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="52"/>
+    </row>
+    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-    </row>
-    <row r="27" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="46" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="11" t="str">
+      <c r="H31" s="57">
         <f>J2</f>
-        <v>1980/1111</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
+        <v>43435</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="28" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="34" t="str">
+      <c r="B40" s="65" t="str">
         <f>H10</f>
-        <v>İSMET YILMAZ</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
+        <v>MEHMET EROĞLU</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="62" t="str">
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="70" t="str">
         <f>H19</f>
-        <v>BU ZARFTA 13.04.2018 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
-      </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="26"/>
+        <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
+      </c>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="35" t="str">
+      <c r="A42" s="44"/>
+      <c r="B42" s="23" t="str">
         <f>H12</f>
-        <v>RAMAZAN, YASEMİN kızı D.Tarihi: 10.04.1980</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="30"/>
+        <v>ALİ, HAVVA oğlu D.Tarihi: 14.09.1986</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="35" t="str">
+      <c r="A43" s="46"/>
+      <c r="B43" s="23" t="str">
         <f>H13</f>
-        <v>T.C No: 49******905</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="30"/>
+        <v>T.C No: 14******518</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="67"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="69" t="str">
+      <c r="B45" s="71" t="str">
         <f>H15</f>
-        <v>Ambarlı Mah Etibanktesisler Yolu Cad. No:1/7 34315 Avcılar/İstanbul</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
+        <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="66" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="26"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="K49" s="26"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="26"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="F57" s="46" t="s">
+      <c r="A57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="F57" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1883,11 +1932,6 @@
     <mergeCell ref="J31:K32"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G35:H36"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H15:K17"/>
-    <mergeCell ref="H19:J22"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1895,32 +1939,14 @@
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H15:K17"/>
+    <mergeCell ref="H19:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -511,24 +511,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -541,15 +561,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -562,17 +573,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,16 +1000,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="50"/>
-    <col min="16" max="16" width="13.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="15" max="15" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="51" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,20 +1019,20 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="P1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="73">
+      <c r="Q1" s="53">
         <v>43435</v>
       </c>
     </row>
@@ -1039,21 +1040,21 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="62">
         <f>Q1</f>
         <v>43435</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="63"/>
       <c r="P2" s="51" t="s">
         <v>34</v>
       </c>
@@ -1065,16 +1066,16 @@
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>35</v>
       </c>
@@ -1104,14 +1105,14 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1137,17 +1138,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
       <c r="P6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="54">
         <v>31669</v>
       </c>
     </row>
@@ -1160,8 +1161,8 @@
       <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
@@ -1220,14 +1221,14 @@
       <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="65" t="str">
+      <c r="H10" s="56" t="str">
         <f>UPPER(Q2)</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
       <c r="P10" s="51" t="s">
@@ -1246,9 +1247,9 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
     </row>
@@ -1315,13 +1316,13 @@
       <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="66" t="str">
+      <c r="H15" s="71" t="str">
         <f>PROPER(Q8)</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -1333,10 +1334,10 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -1348,10 +1349,10 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
@@ -1378,12 +1379,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="68" t="str">
+      <c r="H19" s="73" t="str">
         <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1396,9 +1397,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,9 +1414,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,9 +1431,9 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1534,13 +1535,13 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -1549,41 +1550,41 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="62">
         <f>J2</f>
         <v>43435</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57" t="s">
+      <c r="I31" s="62"/>
+      <c r="J31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="58"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1618,10 +1619,10 @@
       <c r="D35" s="17"/>
       <c r="E35" s="9"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="64"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
@@ -1633,8 +1634,8 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
@@ -1679,14 +1680,14 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="65" t="str">
+      <c r="B40" s="56" t="str">
         <f>H10</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="17"/>
@@ -1697,19 +1698,19 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="70" t="str">
+      <c r="H41" s="57" t="str">
         <f>H19</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,9 +1724,9 @@
       <c r="E42" s="45"/>
       <c r="F42" s="7"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1739,9 +1740,9 @@
       <c r="E43" s="45"/>
       <c r="F43" s="17"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,22 +1753,22 @@
       <c r="E44" s="47"/>
       <c r="F44" s="43"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="71" t="str">
+      <c r="B45" s="58" t="str">
         <f>H15</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="43"/>
       <c r="G45" s="32"/>
       <c r="H45" s="17"/>
@@ -1777,10 +1778,10 @@
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="43"/>
       <c r="G46" s="32"/>
       <c r="H46" s="17"/>
@@ -1790,10 +1791,10 @@
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="43"/>
       <c r="G47" s="32"/>
       <c r="H47" s="17"/>
@@ -1922,16 +1923,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1944,6 +1935,16 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H15:K17"/>
     <mergeCell ref="H19:J22"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G35:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -511,14 +511,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,51 +572,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,16 +1000,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="0" style="50" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="51" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="50" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="51" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="4" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1019,20 +1019,20 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="P1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="53">
+      <c r="Q1" s="74">
         <v>43435</v>
       </c>
     </row>
@@ -1040,21 +1040,21 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="58">
         <f>Q1</f>
         <v>43435</v>
       </c>
-      <c r="K2" s="63"/>
+      <c r="K2" s="59"/>
       <c r="P2" s="51" t="s">
         <v>34</v>
       </c>
@@ -1066,16 +1066,16 @@
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="P3" s="51" t="s">
         <v>35</v>
       </c>
@@ -1105,14 +1105,14 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1138,7 +1138,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="63" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="64"/>
@@ -1148,7 +1148,7 @@
       <c r="P6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="53">
         <v>31669</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="70"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="64"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
@@ -1221,14 +1221,14 @@
       <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="56" t="str">
+      <c r="H10" s="66" t="str">
         <f>UPPER(Q2)</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="I10" s="56"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
       <c r="P10" s="51" t="s">
@@ -1247,9 +1247,9 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
     </row>
@@ -1316,13 +1316,13 @@
       <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="71" t="str">
+      <c r="H15" s="67" t="str">
         <f>PROPER(Q8)</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
     </row>
     <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -1334,10 +1334,10 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -1349,10 +1349,10 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
@@ -1379,12 +1379,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="73" t="str">
+      <c r="H19" s="69" t="str">
         <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1397,9 +1397,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,9 +1414,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,9 +1431,9 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,13 +1535,13 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -1550,41 +1550,41 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="58">
         <f>J2</f>
         <v>43435</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62" t="s">
+      <c r="I31" s="58"/>
+      <c r="J31" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="63"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1680,14 +1680,14 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="56" t="str">
+      <c r="B40" s="66" t="str">
         <f>H10</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="17"/>
@@ -1698,19 +1698,19 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="57" t="str">
+      <c r="H41" s="71" t="str">
         <f>H19</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,9 +1724,9 @@
       <c r="E42" s="45"/>
       <c r="F42" s="7"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,9 +1740,9 @@
       <c r="E43" s="45"/>
       <c r="F43" s="17"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,22 +1753,22 @@
       <c r="E44" s="47"/>
       <c r="F44" s="43"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="58" t="str">
+      <c r="B45" s="72" t="str">
         <f>H15</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="43"/>
       <c r="G45" s="32"/>
       <c r="H45" s="17"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="43"/>
       <c r="G46" s="32"/>
       <c r="H46" s="17"/>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="43"/>
       <c r="G47" s="32"/>
       <c r="H47" s="17"/>
@@ -1923,6 +1923,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1935,16 +1945,6 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H15:K17"/>
     <mergeCell ref="H19:J22"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G35:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -512,24 +512,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -542,15 +560,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -563,16 +572,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1019,13 +1019,13 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -1040,21 +1040,21 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="61">
         <f>Q1</f>
         <v>43435</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="62"/>
       <c r="P2" s="51" t="s">
         <v>34</v>
       </c>
@@ -1066,16 +1066,16 @@
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
       <c r="P3" s="51" t="s">
         <v>35</v>
       </c>
@@ -1105,14 +1105,14 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1138,10 +1138,10 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
@@ -1161,8 +1161,8 @@
       <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
@@ -1221,14 +1221,14 @@
       <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="66" t="str">
+      <c r="H10" s="55" t="str">
         <f>UPPER(Q2)</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="I10" s="66"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
       <c r="P10" s="51" t="s">
@@ -1247,9 +1247,9 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
     </row>
@@ -1316,13 +1316,13 @@
       <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="67" t="str">
+      <c r="H15" s="70" t="str">
         <f>PROPER(Q8)</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -1334,10 +1334,10 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -1349,10 +1349,10 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
@@ -1379,12 +1379,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="69" t="str">
+      <c r="H19" s="72" t="str">
         <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1397,9 +1397,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,9 +1414,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,9 +1431,9 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,13 +1535,13 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -1550,41 +1550,41 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="61">
         <f>J2</f>
         <v>43435</v>
       </c>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58" t="s">
+      <c r="I31" s="61"/>
+      <c r="J31" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="59"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1619,10 +1619,10 @@
       <c r="D35" s="17"/>
       <c r="E35" s="9"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="64"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
@@ -1634,8 +1634,8 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
@@ -1680,14 +1680,14 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="66" t="str">
+      <c r="B40" s="55" t="str">
         <f>H10</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="C40" s="66"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="17"/>
@@ -1698,19 +1698,19 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="71" t="str">
+      <c r="H41" s="56" t="str">
         <f>H19</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,9 +1724,9 @@
       <c r="E42" s="45"/>
       <c r="F42" s="7"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,9 +1740,9 @@
       <c r="E43" s="45"/>
       <c r="F43" s="17"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,22 +1753,22 @@
       <c r="E44" s="47"/>
       <c r="F44" s="43"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="72" t="str">
+      <c r="B45" s="57" t="str">
         <f>H15</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="43"/>
       <c r="G45" s="32"/>
       <c r="H45" s="17"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="43"/>
       <c r="G46" s="32"/>
       <c r="H46" s="17"/>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="43"/>
       <c r="G47" s="32"/>
       <c r="H47" s="17"/>
@@ -1923,16 +1923,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1945,6 +1935,16 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H15:K17"/>
     <mergeCell ref="H19:J22"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G35:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>TEBLİĞ MAZBATASI</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">………………………………………………… Buradan katlayınız ………………………………………………… </t>
-  </si>
-  <si>
-    <t>Soruşturma</t>
   </si>
   <si>
     <t>soruşturma No</t>
@@ -512,12 +509,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,52 +570,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,17 +997,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="50" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="51" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="15" max="15" width="9.140625" style="50" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="51" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,20 +1017,20 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="P1" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="74">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="54">
         <v>43435</v>
       </c>
     </row>
@@ -1040,47 +1038,47 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="59">
         <f>Q1</f>
         <v>43435</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="60"/>
       <c r="P2" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="P3" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,31 +1096,31 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
       <c r="P4" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="P5" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" s="4" t="str">
         <f>IF(Q5 = "Kadın","kızı",IF(Q5 = "Erkek","oğlu",))</f>
@@ -1138,15 +1136,15 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
       <c r="P6" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="53">
         <v>31669</v>
@@ -1161,13 +1159,13 @@
       <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="P7" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="4">
         <v>14579213518</v>
@@ -1188,10 +1186,10 @@
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
       <c r="P8" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1209,7 +1207,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="20"/>
       <c r="P9" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,21 +1219,21 @@
       <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="55" t="str">
+      <c r="H10" s="67" t="str">
         <f>UPPER(Q2)</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
       <c r="P10" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,9 +1245,9 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
     </row>
@@ -1316,13 +1314,13 @@
       <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="70" t="str">
+      <c r="H15" s="68" t="str">
         <f>PROPER(Q8)</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -1334,10 +1332,10 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -1349,10 +1347,10 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
@@ -1379,12 +1377,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="72" t="str">
+      <c r="H19" s="70" t="str">
         <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1397,9 +1395,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,9 +1412,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,9 +1429,9 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,13 +1533,13 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -1550,41 +1548,42 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="59">
         <f>J2</f>
         <v>43435</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="62"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59">
+        <f>Q10</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1619,10 +1618,10 @@
       <c r="D35" s="17"/>
       <c r="E35" s="9"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
@@ -1634,8 +1633,8 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
@@ -1680,14 +1679,14 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="55" t="str">
+      <c r="B40" s="67" t="str">
         <f>H10</f>
         <v>MEHMET EROĞLU</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="17"/>
@@ -1698,19 +1697,19 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="56" t="str">
+      <c r="H41" s="72" t="str">
         <f>H19</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,9 +1723,9 @@
       <c r="E42" s="45"/>
       <c r="F42" s="7"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,9 +1739,9 @@
       <c r="E43" s="45"/>
       <c r="F43" s="17"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,22 +1752,22 @@
       <c r="E44" s="47"/>
       <c r="F44" s="43"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="57" t="str">
+      <c r="B45" s="73" t="str">
         <f>H15</f>
         <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="43"/>
       <c r="G45" s="32"/>
       <c r="H45" s="17"/>
@@ -1778,10 +1777,10 @@
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="43"/>
       <c r="G46" s="32"/>
       <c r="H46" s="17"/>
@@ -1791,10 +1790,10 @@
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="43"/>
       <c r="G47" s="32"/>
       <c r="H47" s="17"/>
@@ -1923,6 +1922,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1935,16 +1944,6 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H15:K17"/>
     <mergeCell ref="H19:J22"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G35:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dosyalar/uzfile/Tebligat.xlsx
+++ b/dosyalar/uzfile/Tebligat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>TEBLİĞ MAZBATASI</t>
   </si>
@@ -169,24 +169,6 @@
   </si>
   <si>
     <t>dosya türü</t>
-  </si>
-  <si>
-    <t>mahkeme veya savcılık</t>
-  </si>
-  <si>
-    <t>Erkek</t>
-  </si>
-  <si>
-    <t>mehmet eroğlu</t>
-  </si>
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>havva</t>
-  </si>
-  <si>
-    <t>ambarlı mah etinabk tesisler yolu cad. batman apt. No:18 daire 12 Avcılar istanbul</t>
   </si>
 </sst>
 </file>
@@ -510,24 +492,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -540,15 +540,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -560,15 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -997,91 +979,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="50" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="50" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="51" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="4" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="P1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="54">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="62">
         <f>Q1</f>
-        <v>43435</v>
-      </c>
-      <c r="K2" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="63"/>
       <c r="P2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1098,19 +1072,16 @@
       <c r="P4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1119,15 +1090,8 @@
       <c r="P5" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f>IF(Q5 = "Kadın","kızı",IF(Q5 = "Erkek","oğlu",))</f>
-        <v>oğlu</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -1136,21 +1100,19 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
       <c r="P6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="53">
-        <v>31669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -1159,19 +1121,16 @@
       <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="P7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="4">
-        <v>14579213518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
@@ -1188,11 +1147,8 @@
       <c r="P8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
@@ -1219,24 +1175,21 @@
       <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="67" t="str">
+      <c r="H10" s="56" t="str">
         <f>UPPER(Q2)</f>
-        <v>MEHMET EROĞLU</v>
-      </c>
-      <c r="I10" s="67"/>
+        <v/>
+      </c>
+      <c r="I10" s="56"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
       <c r="P10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1198,13 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
@@ -1263,13 +1216,13 @@
       <c r="G12" s="25"/>
       <c r="H12" s="23" t="str">
         <f>UPPER(Q3)&amp;", "&amp;UPPER(Q4)&amp;" "&amp; R5 &amp;" D.Tarihi: "&amp; TEXT(Q6,"gg.aa.yyyy")</f>
-        <v>ALİ, HAVVA oğlu D.Tarihi: 14.09.1986</v>
+        <v>,   D.Tarihi: 00.01.1900</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -1281,13 +1234,13 @@
       <c r="G13" s="26"/>
       <c r="H13" s="23" t="str">
         <f>"T.C No: "&amp;LEFT(Q7,2)&amp;"******"&amp;RIGHT(Q7,3)</f>
-        <v>T.C No: 14******518</v>
+        <v>T.C No: ******</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1255,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
@@ -1314,15 +1267,15 @@
       <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="68" t="str">
+      <c r="H15" s="71" t="str">
         <f>PROPER(Q8)</f>
-        <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-    </row>
-    <row r="16" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -1332,10 +1285,10 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -1347,10 +1300,10 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
@@ -1377,12 +1330,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="70" t="str">
+      <c r="H19" s="73" t="str">
         <f>"BU ZARFTA "&amp;TEXT(Q9,"gg.aa.yyyy")&amp;" TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR."</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,9 +1348,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1412,9 +1365,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,9 +1382,9 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,13 +1486,13 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -1548,42 +1501,42 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="62">
         <f>J2</f>
-        <v>43435</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59">
+        <v>0</v>
+      </c>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62">
         <f>Q10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="60"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1618,10 +1571,10 @@
       <c r="D35" s="17"/>
       <c r="E35" s="9"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="64"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
@@ -1633,8 +1586,8 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
@@ -1679,14 +1632,14 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="67" t="str">
+      <c r="B40" s="56" t="str">
         <f>H10</f>
-        <v>MEHMET EROĞLU</v>
-      </c>
-      <c r="C40" s="67"/>
+        <v/>
+      </c>
+      <c r="C40" s="56"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="17"/>
@@ -1697,51 +1650,51 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="72" t="str">
+      <c r="H41" s="57" t="str">
         <f>H19</f>
         <v>BU ZARFTA 00.01.1900 TARİHLİ UZLAŞMA TEKLİF FORMU VARDIR.</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="23" t="str">
         <f>H12</f>
-        <v>ALİ, HAVVA oğlu D.Tarihi: 14.09.1986</v>
+        <v>,   D.Tarihi: 00.01.1900</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="7"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
       <c r="B43" s="23" t="str">
         <f>H13</f>
-        <v>T.C No: 14******518</v>
+        <v>T.C No: ******</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="17"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,22 +1705,22 @@
       <c r="E44" s="47"/>
       <c r="F44" s="43"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="73" t="str">
+      <c r="B45" s="58" t="str">
         <f>H15</f>
-        <v>Ambarlı Mah Etinabk Tesisler Yolu Cad. Batman Apt. No:18 Daire 12 Avcılar İstanbul</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
+        <v/>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="43"/>
       <c r="G45" s="32"/>
       <c r="H45" s="17"/>
@@ -1777,10 +1730,10 @@
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="43"/>
       <c r="G46" s="32"/>
       <c r="H46" s="17"/>
@@ -1790,10 +1743,10 @@
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="43"/>
       <c r="G47" s="32"/>
       <c r="H47" s="17"/>
@@ -1922,16 +1875,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
@@ -1944,6 +1887,16 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H15:K17"/>
     <mergeCell ref="H19:J22"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G35:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
